--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{7026482B-5930-44B2-B9E5-39DBF2ED834C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7610DC0-836B-4271-BDAA-A7D69DCC8659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28425" yWindow="9375" windowWidth="19200" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -38,22 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -221,9 +206,6 @@
     <t>James Burling</t>
   </si>
   <si>
-    <t>VoIP layer</t>
-  </si>
-  <si>
     <t>Security Layer</t>
   </si>
   <si>
@@ -233,10 +215,67 @@
     <t>Create Gantt Chart</t>
   </si>
   <si>
-    <t>Setup and Network Analysis</t>
-  </si>
-  <si>
     <t>Create Github repository with required files</t>
+  </si>
+  <si>
+    <t>Setup and VoIP Layer</t>
+  </si>
+  <si>
+    <t>Network Analysis</t>
+  </si>
+  <si>
+    <t>Implement Sender Class</t>
+  </si>
+  <si>
+    <t>Implement Reciever Class</t>
+  </si>
+  <si>
+    <t>Test Classes using Threads</t>
+  </si>
+  <si>
+    <t>Implement Analyzer Class</t>
+  </si>
+  <si>
+    <t>Log packets during calls</t>
+  </si>
+  <si>
+    <t>Calculate QoS Stats for DatagramSocket</t>
+  </si>
+  <si>
+    <t>Calculate QoS Stats for DatagramSocket2</t>
+  </si>
+  <si>
+    <t>Calculate QoS Stats for DatagramSocket3</t>
+  </si>
+  <si>
+    <t>Implement Security Class</t>
+  </si>
+  <si>
+    <t>Test Encrytion locally</t>
+  </si>
+  <si>
+    <t>Test Decryption locally</t>
+  </si>
+  <si>
+    <t>Test encryption over VoIP</t>
+  </si>
+  <si>
+    <t>Interpolation / Repetition</t>
+  </si>
+  <si>
+    <t>Implement Block Interleaving</t>
+  </si>
+  <si>
+    <t>Increase packet efficiency</t>
+  </si>
+  <si>
+    <t>Test improvements on VoIP</t>
+  </si>
+  <si>
+    <t>Create comparison graphs on QoS statistics (before/after)</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -250,7 +289,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +454,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +539,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,7 +668,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -646,8 +697,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -889,6 +941,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -896,20 +960,17 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="23" fillId="14" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
@@ -917,6 +978,7 @@
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
+    <cellStyle name="Neutral" xfId="13" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
@@ -924,7 +986,37 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1051,15 +1143,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1474,33 +1566,35 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="9" max="47" width="2.5703125" customWidth="1"/>
+    <col min="48" max="48" width="3.28515625" customWidth="1"/>
+    <col min="49" max="50" width="2.5703125" customWidth="1"/>
+    <col min="55" max="56" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1508,139 +1602,119 @@
       <c r="F1" s="47"/>
       <c r="H1" s="2"/>
       <c r="I1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+        <v>41</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <f ca="1">TODAY()</f>
         <v>44246</v>
       </c>
-      <c r="F3" s="91"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="88"/>
+    </row>
+    <row r="4" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="86"/>
+        <v>32</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f ca="1">I5</f>
         <v>44242</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f ca="1">P5</f>
         <v>44249</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f ca="1">W5</f>
         <v>44256</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f ca="1">AD5</f>
         <v>44263</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f ca="1">AK5</f>
         <v>44270</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f ca="1">AR5</f>
         <v>44277</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
-        <f ca="1">AY5</f>
-        <v>44284</v>
-      </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
-        <f ca="1">BF5</f>
-        <v>44291</v>
-      </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+    </row>
+    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44242</v>
@@ -1797,8 +1871,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>44280</v>
       </c>
-      <c r="AV5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="92">
+        <f ca="1">AU5+1</f>
         <v>44281</v>
       </c>
       <c r="AW5" s="10">
@@ -1809,314 +1883,202 @@
         <f t="shared" ca="1" si="0"/>
         <v>44283</v>
       </c>
-      <c r="AY5" s="11">
-        <f ca="1">AX5+1</f>
-        <v>44284</v>
-      </c>
-      <c r="AZ5" s="10">
-        <f ca="1">AY5+1</f>
-        <v>44285</v>
-      </c>
-      <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44286</v>
-      </c>
-      <c r="BB5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44287</v>
-      </c>
-      <c r="BC5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44288</v>
-      </c>
-      <c r="BD5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44289</v>
-      </c>
-      <c r="BE5" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>44290</v>
-      </c>
-      <c r="BF5" s="11">
-        <f ca="1">BE5+1</f>
-        <v>44291</v>
-      </c>
-      <c r="BG5" s="10">
-        <f ca="1">BF5+1</f>
-        <v>44292</v>
-      </c>
-      <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44293</v>
-      </c>
-      <c r="BI5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44294</v>
-      </c>
-      <c r="BJ5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44295</v>
-      </c>
-      <c r="BK5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44296</v>
-      </c>
-      <c r="BL5" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>44297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:50" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" ca="1" si="1">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" ca="1" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" ca="1" si="2">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:AX6" ca="1" si="3">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AV6" s="93" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AZ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BA6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="BB6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BC6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BD6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BE6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BF6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="BG6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BH6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="BI6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BJ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BK6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BL6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:50" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -2163,30 +2125,16 @@
       <c r="AS7" s="44"/>
       <c r="AT7" s="44"/>
       <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
+      <c r="AV7" s="94"/>
       <c r="AW7" s="44"/>
       <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44"/>
-    </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="19"/>
@@ -2194,7 +2142,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H33" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H32" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2236,49 +2184,35 @@
       <c r="AS8" s="44"/>
       <c r="AT8" s="44"/>
       <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
+      <c r="AV8" s="94"/>
       <c r="AW8" s="44"/>
       <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-    </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="66">
         <f ca="1">Project_Start</f>
         <v>44246</v>
       </c>
       <c r="F9" s="66">
-        <f ca="1">E9+3</f>
-        <v>44249</v>
+        <f ca="1">E9+0</f>
+        <v>44246</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2319,49 +2253,35 @@
       <c r="AS9" s="44"/>
       <c r="AT9" s="44"/>
       <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
+      <c r="AV9" s="94"/>
       <c r="AW9" s="44"/>
       <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="44"/>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="44"/>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="44"/>
-    </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="66">
         <f ca="1">F9</f>
-        <v>44249</v>
+        <v>44246</v>
       </c>
       <c r="F10" s="66">
-        <f ca="1">E10+2</f>
-        <v>44251</v>
+        <f ca="1">E10+1</f>
+        <v>44247</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -2402,45 +2322,33 @@
       <c r="AS10" s="44"/>
       <c r="AT10" s="44"/>
       <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
+      <c r="AV10" s="94"/>
       <c r="AW10" s="44"/>
       <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-    </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="72"/>
+        <v>48</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="22">
         <v>0.5</v>
       </c>
       <c r="E11" s="66">
-        <f ca="1">F10</f>
-        <v>44251</v>
+        <f ca="1">E9</f>
+        <v>44246</v>
       </c>
       <c r="F11" s="66">
-        <f ca="1">E11+4</f>
-        <v>44255</v>
+        <f ca="1">E11+7</f>
+        <v>44253</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2481,45 +2389,33 @@
       <c r="AS11" s="44"/>
       <c r="AT11" s="44"/>
       <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
+      <c r="AV11" s="94"/>
       <c r="AW11" s="44"/>
       <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-    </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="72"/>
+        <v>49</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="22">
         <v>0.25</v>
       </c>
       <c r="E12" s="66">
-        <f ca="1">F11</f>
-        <v>44255</v>
+        <f ca="1">F11-7</f>
+        <v>44246</v>
       </c>
       <c r="F12" s="66">
-        <f ca="1">E12+5</f>
-        <v>44260</v>
+        <f ca="1">E12+7</f>
+        <v>44253</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2560,42 +2456,30 @@
       <c r="AS12" s="44"/>
       <c r="AT12" s="44"/>
       <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
+      <c r="AV12" s="94"/>
       <c r="AW12" s="44"/>
       <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-    </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="72"/>
+        <v>50</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>65</v>
+      </c>
       <c r="D13" s="22"/>
       <c r="E13" s="66">
-        <f ca="1">E10+1</f>
-        <v>44250</v>
+        <f ca="1">F12+1</f>
+        <v>44254</v>
       </c>
       <c r="F13" s="66">
         <f ca="1">E13+2</f>
-        <v>44252</v>
+        <v>44256</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="I13" s="44"/>
@@ -2637,27 +2521,13 @@
       <c r="AS13" s="44"/>
       <c r="AT13" s="44"/>
       <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
+      <c r="AV13" s="94"/>
       <c r="AW13" s="44"/>
       <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-    </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>47</v>
@@ -2668,7 +2538,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I14" s="44"/>
@@ -2710,44 +2580,32 @@
       <c r="AS14" s="44"/>
       <c r="AT14" s="44"/>
       <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
+      <c r="AV14" s="94"/>
       <c r="AW14" s="44"/>
       <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="44"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="44"/>
-      <c r="BI14" s="44"/>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
-      <c r="BL14" s="44"/>
-    </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
       <c r="B15" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="74"/>
+        <v>51</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="27">
         <v>0.5</v>
       </c>
       <c r="E15" s="67">
         <f ca="1">E13+1</f>
-        <v>44251</v>
+        <v>44255</v>
       </c>
       <c r="F15" s="67">
         <f ca="1">E15+4</f>
-        <v>44255</v>
+        <v>44259</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="I15" s="44"/>
@@ -2789,44 +2647,32 @@
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
       <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
+      <c r="AV15" s="94"/>
       <c r="AW15" s="44"/>
       <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="44"/>
-      <c r="BK15" s="44"/>
-      <c r="BL15" s="44"/>
-    </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>52</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="27">
         <v>0.5</v>
       </c>
       <c r="E16" s="67">
         <f ca="1">E15+2</f>
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="F16" s="67">
         <f ca="1">E16+5</f>
-        <v>44258</v>
+        <v>44262</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="I16" s="44"/>
@@ -2868,42 +2714,30 @@
       <c r="AS16" s="44"/>
       <c r="AT16" s="44"/>
       <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
+      <c r="AV16" s="94"/>
       <c r="AW16" s="44"/>
       <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="44"/>
-      <c r="BA16" s="44"/>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="44"/>
-      <c r="BD16" s="44"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="44"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="44"/>
-      <c r="BK16" s="44"/>
-      <c r="BL16" s="44"/>
-    </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="74"/>
+        <v>53</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>65</v>
+      </c>
       <c r="D17" s="27"/>
       <c r="E17" s="67">
         <f ca="1">F16</f>
-        <v>44258</v>
+        <v>44262</v>
       </c>
       <c r="F17" s="67">
         <f ca="1">E17+3</f>
-        <v>44261</v>
+        <v>44265</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="I17" s="44"/>
@@ -2945,42 +2779,30 @@
       <c r="AS17" s="44"/>
       <c r="AT17" s="44"/>
       <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
+      <c r="AV17" s="94"/>
       <c r="AW17" s="44"/>
       <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="44"/>
-      <c r="BA17" s="44"/>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="44"/>
-      <c r="BD17" s="44"/>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="44"/>
-      <c r="BG17" s="44"/>
-      <c r="BH17" s="44"/>
-      <c r="BI17" s="44"/>
-      <c r="BJ17" s="44"/>
-      <c r="BK17" s="44"/>
-      <c r="BL17" s="44"/>
-    </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="74"/>
+        <v>54</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="27"/>
       <c r="E18" s="67">
         <f ca="1">E17</f>
-        <v>44258</v>
+        <v>44262</v>
       </c>
       <c r="F18" s="67">
         <f ca="1">E18+2</f>
-        <v>44260</v>
+        <v>44264</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="I18" s="44"/>
@@ -3022,42 +2844,30 @@
       <c r="AS18" s="44"/>
       <c r="AT18" s="44"/>
       <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
+      <c r="AV18" s="94"/>
       <c r="AW18" s="44"/>
       <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="44"/>
-      <c r="BA18" s="44"/>
-      <c r="BB18" s="44"/>
-      <c r="BC18" s="44"/>
-      <c r="BD18" s="44"/>
-      <c r="BE18" s="44"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="44"/>
-      <c r="BH18" s="44"/>
-      <c r="BI18" s="44"/>
-      <c r="BJ18" s="44"/>
-      <c r="BK18" s="44"/>
-      <c r="BL18" s="44"/>
-    </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="74"/>
+        <v>55</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="27"/>
       <c r="E19" s="67">
         <f ca="1">E18</f>
-        <v>44258</v>
+        <v>44262</v>
       </c>
       <c r="F19" s="67">
         <f ca="1">E19+3</f>
-        <v>44261</v>
+        <v>44265</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="I19" s="44"/>
@@ -3099,30 +2909,16 @@
       <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
+      <c r="AV19" s="94"/>
       <c r="AW19" s="44"/>
       <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="44"/>
-      <c r="BA19" s="44"/>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="44"/>
-      <c r="BH19" s="44"/>
-      <c r="BI19" s="44"/>
-      <c r="BJ19" s="44"/>
-      <c r="BK19" s="44"/>
-      <c r="BL19" s="44"/>
-    </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="29"/>
@@ -3130,7 +2926,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I20" s="44"/>
@@ -3172,30 +2968,18 @@
       <c r="AS20" s="44"/>
       <c r="AT20" s="44"/>
       <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
+      <c r="AV20" s="94"/>
       <c r="AW20" s="44"/>
       <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="44"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
-      <c r="BL20" s="44"/>
-    </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="76"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" s="32"/>
       <c r="E21" s="68">
         <f ca="1">E9+15</f>
@@ -3207,7 +2991,7 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="I21" s="44"/>
@@ -3249,30 +3033,18 @@
       <c r="AS21" s="44"/>
       <c r="AT21" s="44"/>
       <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
+      <c r="AV21" s="94"/>
       <c r="AW21" s="44"/>
       <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="44"/>
-      <c r="BJ21" s="44"/>
-      <c r="BK21" s="44"/>
-      <c r="BL21" s="44"/>
-    </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="76"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" s="32"/>
       <c r="E22" s="68">
         <f ca="1">F21+1</f>
@@ -3284,7 +3056,7 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="I22" s="44"/>
@@ -3326,30 +3098,18 @@
       <c r="AS22" s="44"/>
       <c r="AT22" s="44"/>
       <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
+      <c r="AV22" s="94"/>
       <c r="AW22" s="44"/>
       <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
-      <c r="BK22" s="44"/>
-      <c r="BL22" s="44"/>
-    </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="76"/>
+        <v>58</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>65</v>
+      </c>
       <c r="D23" s="32"/>
       <c r="E23" s="68">
         <f ca="1">E22+5</f>
@@ -3361,7 +3121,7 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="I23" s="44"/>
@@ -3403,30 +3163,18 @@
       <c r="AS23" s="44"/>
       <c r="AT23" s="44"/>
       <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
+      <c r="AV23" s="94"/>
       <c r="AW23" s="44"/>
       <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="44"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="44"/>
-      <c r="BJ23" s="44"/>
-      <c r="BK23" s="44"/>
-      <c r="BL23" s="44"/>
-    </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="76"/>
+        <v>59</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>65</v>
+      </c>
       <c r="D24" s="32"/>
       <c r="E24" s="68">
         <f ca="1">F23+1</f>
@@ -3438,7 +3186,7 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="I24" s="44"/>
@@ -3480,43 +3228,25 @@
       <c r="AS24" s="44"/>
       <c r="AT24" s="44"/>
       <c r="AU24" s="44"/>
-      <c r="AV24" s="44"/>
+      <c r="AV24" s="94"/>
       <c r="AW24" s="44"/>
       <c r="AX24" s="44"/>
-      <c r="AY24" s="44"/>
-      <c r="AZ24" s="44"/>
-      <c r="BA24" s="44"/>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="44"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="44"/>
-      <c r="BK24" s="44"/>
-      <c r="BL24" s="44"/>
-    </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="68">
-        <f ca="1">E23</f>
-        <v>44272</v>
-      </c>
-      <c r="F25" s="68">
-        <f ca="1">E25+4</f>
-        <v>44276</v>
-      </c>
+    </row>
+    <row r="25" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H25" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3557,39 +3287,29 @@
       <c r="AS25" s="44"/>
       <c r="AT25" s="44"/>
       <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
+      <c r="AV25" s="94"/>
       <c r="AW25" s="44"/>
       <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="44"/>
-    </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+    </row>
+    <row r="26" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>25</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H26" s="17" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3630,40 +3350,28 @@
       <c r="AS26" s="44"/>
       <c r="AT26" s="44"/>
       <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
+      <c r="AV26" s="94"/>
       <c r="AW26" s="44"/>
       <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
-    </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="78"/>
+        <v>61</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>41</v>
+      </c>
       <c r="D27" s="37"/>
       <c r="E27" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I27" s="44"/>
@@ -3705,40 +3413,28 @@
       <c r="AS27" s="44"/>
       <c r="AT27" s="44"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
+      <c r="AV27" s="94"/>
       <c r="AW27" s="44"/>
       <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="44"/>
-    </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="78"/>
+        <v>62</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>41</v>
+      </c>
       <c r="D28" s="37"/>
       <c r="E28" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="44"/>
@@ -3780,40 +3476,28 @@
       <c r="AS28" s="44"/>
       <c r="AT28" s="44"/>
       <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
+      <c r="AV28" s="94"/>
       <c r="AW28" s="44"/>
       <c r="AX28" s="44"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="44"/>
-    </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="78"/>
+        <v>63</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>65</v>
+      </c>
       <c r="D29" s="37"/>
       <c r="E29" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="44"/>
@@ -3855,40 +3539,28 @@
       <c r="AS29" s="44"/>
       <c r="AT29" s="44"/>
       <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
+      <c r="AV29" s="94"/>
       <c r="AW29" s="44"/>
       <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="44"/>
-      <c r="BA29" s="44"/>
-      <c r="BB29" s="44"/>
-      <c r="BC29" s="44"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="44"/>
-      <c r="BH29" s="44"/>
-      <c r="BI29" s="44"/>
-      <c r="BJ29" s="44"/>
-      <c r="BK29" s="44"/>
-      <c r="BL29" s="44"/>
-    </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="78"/>
+        <v>64</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>65</v>
+      </c>
       <c r="D30" s="37"/>
       <c r="E30" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="44"/>
@@ -3930,41 +3602,23 @@
       <c r="AS30" s="44"/>
       <c r="AT30" s="44"/>
       <c r="AU30" s="44"/>
-      <c r="AV30" s="44"/>
+      <c r="AV30" s="94"/>
       <c r="AW30" s="44"/>
       <c r="AX30" s="44"/>
-      <c r="AY30" s="44"/>
-      <c r="AZ30" s="44"/>
-      <c r="BA30" s="44"/>
-      <c r="BB30" s="44"/>
-      <c r="BC30" s="44"/>
-      <c r="BD30" s="44"/>
-      <c r="BE30" s="44"/>
-      <c r="BF30" s="44"/>
-      <c r="BG30" s="44"/>
-      <c r="BH30" s="44"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="44"/>
-      <c r="BK30" s="44"/>
-      <c r="BL30" s="44"/>
-    </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="31" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H31" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -4005,194 +3659,93 @@
       <c r="AS31" s="44"/>
       <c r="AT31" s="44"/>
       <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
+      <c r="AV31" s="94"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="44"/>
-      <c r="BA31" s="44"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="44"/>
-      <c r="BH31" s="44"/>
-      <c r="BI31" s="44"/>
-      <c r="BJ31" s="44"/>
-      <c r="BK31" s="44"/>
-      <c r="BL31" s="44"/>
-    </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
-        <f t="shared" si="6"/>
+    </row>
+    <row r="32" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="44"/>
-      <c r="BA32" s="44"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44"/>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
-      <c r="BF32" s="44"/>
-      <c r="BG32" s="44"/>
-      <c r="BH32" s="44"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="44"/>
-      <c r="BK32" s="44"/>
-      <c r="BL32" s="44"/>
-    </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="46"/>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="46"/>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="15"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="46"/>
+      <c r="AN32" s="46"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="AT32" s="46"/>
+      <c r="AU32" s="46"/>
+      <c r="AV32" s="94"/>
+      <c r="AW32" s="46"/>
+      <c r="AX32" s="46"/>
+    </row>
+    <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
+  <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
+  <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4206,17 +3759,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL33">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:AW32">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL33">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:AW32">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX5:AX32">
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>AND(TODAY()&gt;=AX$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX7:AX32">
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="39" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4253,7 +3819,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4276,79 +3842,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7610DC0-836B-4271-BDAA-A7D69DCC8659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A585D-823A-449C-AC71-D4B94690BD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -224,12 +224,6 @@
     <t>Network Analysis</t>
   </si>
   <si>
-    <t>Implement Sender Class</t>
-  </si>
-  <si>
-    <t>Implement Reciever Class</t>
-  </si>
-  <si>
     <t>Test Classes using Threads</t>
   </si>
   <si>
@@ -276,6 +270,36 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>Implement Simple Sender Class</t>
+  </si>
+  <si>
+    <t>Implement Simple Reciever Class</t>
+  </si>
+  <si>
+    <t>Implement Layered Network Stack</t>
+  </si>
+  <si>
+    <t>Code layer interface</t>
+  </si>
+  <si>
+    <t>Code AudioLayer and VoicePlayer</t>
+  </si>
+  <si>
+    <t>Code VoIP layer (add packet numbers)</t>
+  </si>
+  <si>
+    <t>Calculate delay in VoIP layer</t>
+  </si>
+  <si>
+    <t>Calculate Packet Loss in VoIP Layer</t>
+  </si>
+  <si>
+    <t>Code a packet buffer and implement within VoIP layer</t>
+  </si>
+  <si>
+    <t>Allow VoIP layer to detect out-of-order packets</t>
   </si>
 </sst>
 </file>
@@ -462,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +568,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FF79"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -699,7 +735,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -740,9 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,9 +929,6 @@
     <xf numFmtId="165" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,9 +951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1">
@@ -938,9 +965,49 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
+    <xf numFmtId="168" fontId="23" fillId="14" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -952,22 +1019,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="23" fillId="14" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1222,6 +1273,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFF5FF79"/>
+      <color rgb="FFFFFFCF"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
@@ -1230,7 +1283,6 @@
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
       <color rgb="FF3969AD"/>
-      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1566,17 +1618,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AX42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -1590,302 +1642,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="47"/>
+      <c r="F1" s="46"/>
       <c r="H1" s="2"/>
       <c r="I1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
-        <f ca="1">TODAY()</f>
+      <c r="D3" s="94"/>
+      <c r="E3" s="99">
         <v>44246</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
-        <f ca="1">I5</f>
+      <c r="I4" s="96">
+        <f>I5</f>
         <v>44242</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
-        <f ca="1">P5</f>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="96">
+        <f>P5</f>
         <v>44249</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
-        <f ca="1">W5</f>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="96">
+        <f>W5</f>
         <v>44256</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
-        <f ca="1">AD5</f>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96">
+        <f>AD5</f>
         <v>44263</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
-        <f ca="1">AK5</f>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="96">
+        <f>AK5</f>
         <v>44270</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
-        <f ca="1">AR5</f>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="96">
+        <f>AR5</f>
         <v>44277</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="98"/>
     </row>
     <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
       <c r="I5" s="11">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44242</v>
       </c>
       <c r="J5" s="10">
-        <f ca="1">I5+1</f>
+        <f>I5+1</f>
         <v>44243</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>44244</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44245</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44246</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44247</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44248</v>
       </c>
       <c r="P5" s="11">
-        <f ca="1">O5+1</f>
+        <f>O5+1</f>
         <v>44249</v>
       </c>
       <c r="Q5" s="10">
-        <f ca="1">P5+1</f>
+        <f>P5+1</f>
         <v>44250</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44251</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44252</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44253</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44254</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44255</v>
       </c>
       <c r="W5" s="11">
-        <f ca="1">V5+1</f>
+        <f>V5+1</f>
         <v>44256</v>
       </c>
       <c r="X5" s="10">
-        <f ca="1">W5+1</f>
+        <f>W5+1</f>
         <v>44257</v>
       </c>
       <c r="Y5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44258</v>
       </c>
       <c r="Z5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44259</v>
       </c>
       <c r="AA5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44260</v>
       </c>
       <c r="AB5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44261</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44262</v>
       </c>
       <c r="AD5" s="11">
-        <f ca="1">AC5+1</f>
+        <f>AC5+1</f>
         <v>44263</v>
       </c>
       <c r="AE5" s="10">
-        <f ca="1">AD5+1</f>
+        <f>AD5+1</f>
         <v>44264</v>
       </c>
       <c r="AF5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44265</v>
       </c>
       <c r="AG5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44266</v>
       </c>
       <c r="AH5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44267</v>
       </c>
       <c r="AI5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44268</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44269</v>
       </c>
       <c r="AK5" s="11">
-        <f ca="1">AJ5+1</f>
+        <f>AJ5+1</f>
         <v>44270</v>
       </c>
       <c r="AL5" s="10">
-        <f ca="1">AK5+1</f>
+        <f>AK5+1</f>
         <v>44271</v>
       </c>
       <c r="AM5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44272</v>
       </c>
       <c r="AN5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44273</v>
       </c>
       <c r="AO5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44274</v>
       </c>
       <c r="AP5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44275</v>
       </c>
       <c r="AQ5" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44276</v>
       </c>
       <c r="AR5" s="11">
-        <f ca="1">AQ5+1</f>
+        <f>AQ5+1</f>
         <v>44277</v>
       </c>
       <c r="AS5" s="10">
-        <f ca="1">AR5+1</f>
+        <f>AR5+1</f>
         <v>44278</v>
       </c>
       <c r="AT5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44279</v>
       </c>
       <c r="AU5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44280</v>
       </c>
-      <c r="AV5" s="92">
-        <f ca="1">AU5+1</f>
+      <c r="AV5" s="81">
+        <f>AU5+1</f>
         <v>44281</v>
       </c>
       <c r="AW5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44282</v>
       </c>
       <c r="AX5" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44283</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:50" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1908,1829 +1959,2271 @@
         <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" ca="1" si="1">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="1">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" ca="1" si="2">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="2">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:AX6" ca="1" si="3">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:AX6" si="3">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="93" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AV6" s="82" t="str">
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="61"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
     </row>
     <row r="8" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H32" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="C8" s="69"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="str">
+        <f t="shared" ref="H8:H39" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="43"/>
     </row>
     <row r="9" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="66">
-        <f ca="1">Project_Start</f>
+      <c r="E9" s="65">
+        <f>Project_Start</f>
         <v>44246</v>
       </c>
-      <c r="F9" s="66">
-        <f ca="1">E9+0</f>
+      <c r="F9" s="65">
+        <f>E9+0</f>
         <v>44246</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="94"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
     </row>
     <row r="10" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="66">
-        <f ca="1">F9</f>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="65">
+        <f>Project_Start</f>
         <v>44246</v>
       </c>
-      <c r="F10" s="66">
-        <f ca="1">E10+1</f>
-        <v>44247</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="F10" s="65">
+        <f>E10+0</f>
+        <v>44246</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+    </row>
+    <row r="11" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="57"/>
+      <c r="B11" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="65">
+        <f>E9</f>
+        <v>44246</v>
+      </c>
+      <c r="F11" s="65">
+        <f>E11+7</f>
+        <v>44253</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="43"/>
+    </row>
+    <row r="12" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="57"/>
+      <c r="B12" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="65">
+        <f>F11-7</f>
+        <v>44246</v>
+      </c>
+      <c r="F12" s="65">
+        <f>E12+7</f>
+        <v>44253</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+    </row>
+    <row r="13" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="57"/>
+      <c r="B13" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="65">
+        <f>F12+0</f>
+        <v>44253</v>
+      </c>
+      <c r="F13" s="65">
+        <f>E13+1</f>
+        <v>44254</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="94"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-    </row>
-    <row r="11" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="66">
-        <f ca="1">E9</f>
-        <v>44246</v>
-      </c>
-      <c r="F11" s="66">
-        <f ca="1">E11+7</f>
-        <v>44253</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-    </row>
-    <row r="12" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="66">
-        <f ca="1">F11-7</f>
-        <v>44246</v>
-      </c>
-      <c r="F12" s="66">
-        <f ca="1">E12+7</f>
-        <v>44253</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-    </row>
-    <row r="13" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="66">
-        <f ca="1">F12+1</f>
-        <v>44254</v>
-      </c>
-      <c r="F13" s="66">
-        <f ca="1">E13+2</f>
-        <v>44256</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
     </row>
     <row r="14" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="str">
+      <c r="B14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
     </row>
     <row r="15" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="74" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="86">
         <v>0.5</v>
       </c>
-      <c r="E15" s="67">
-        <f ca="1">E13+1</f>
-        <v>44255</v>
-      </c>
-      <c r="F15" s="67">
-        <f ca="1">E15+4</f>
-        <v>44259</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="E15" s="87">
+        <f>E13+1</f>
+        <v>44254</v>
+      </c>
+      <c r="F15" s="87">
+        <f>E15+4</f>
+        <v>44258</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="94"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
     </row>
     <row r="16" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="74" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="86">
         <v>0.5</v>
       </c>
-      <c r="E16" s="67">
-        <f ca="1">E15+2</f>
-        <v>44257</v>
-      </c>
-      <c r="F16" s="67">
-        <f ca="1">E16+5</f>
-        <v>44262</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="E16" s="87">
+        <f>E15+2</f>
+        <v>44256</v>
+      </c>
+      <c r="F16" s="87">
+        <f>E16+5</f>
+        <v>44261</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
     </row>
     <row r="17" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="67">
-        <f ca="1">F16</f>
-        <v>44262</v>
-      </c>
-      <c r="F17" s="67">
-        <f ca="1">E17+3</f>
-        <v>44265</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87">
+        <f>F16</f>
+        <v>44261</v>
+      </c>
+      <c r="F17" s="87">
+        <f>E17+3</f>
+        <v>44264</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="43"/>
     </row>
     <row r="18" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="67">
-        <f ca="1">E17</f>
-        <v>44262</v>
-      </c>
-      <c r="F18" s="67">
-        <f ca="1">E18+2</f>
+      <c r="A18" s="57"/>
+      <c r="B18" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87">
+        <f>E17</f>
+        <v>44261</v>
+      </c>
+      <c r="F18" s="87">
+        <f>E18+2</f>
+        <v>44263</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+    </row>
+    <row r="19" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="57"/>
+      <c r="B19" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87">
+        <f>E18</f>
+        <v>44261</v>
+      </c>
+      <c r="F19" s="87">
+        <f>E19+3</f>
         <v>44264</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="94"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-    </row>
-    <row r="19" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="67">
-        <f ca="1">E18</f>
-        <v>44262</v>
-      </c>
-      <c r="F19" s="67">
-        <f ca="1">E19+3</f>
-        <v>44265</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="94"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="43"/>
+      <c r="AX19" s="43"/>
     </row>
     <row r="20" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87">
+        <f t="shared" ref="E20:E21" si="5">E19</f>
+        <v>44261</v>
+      </c>
+      <c r="F20" s="87">
+        <f t="shared" ref="F20:F21" si="6">E20+3</f>
+        <v>44264</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="43"/>
+      <c r="AS20" s="43"/>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="43"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="43"/>
+      <c r="AX20" s="43"/>
+    </row>
+    <row r="21" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57"/>
+      <c r="B21" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87">
+        <f t="shared" si="5"/>
+        <v>44261</v>
+      </c>
+      <c r="F21" s="87">
+        <f t="shared" si="6"/>
+        <v>44264</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+    </row>
+    <row r="22" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="str">
+      <c r="B22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="94"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-    </row>
-    <row r="21" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="68">
-        <f ca="1">E9+15</f>
-        <v>44261</v>
-      </c>
-      <c r="F21" s="68">
-        <f ca="1">E21+5</f>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="43"/>
+    </row>
+    <row r="23" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="57"/>
+      <c r="B23" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="66">
+        <f>E19+1</f>
+        <v>44262</v>
+      </c>
+      <c r="F23" s="66">
+        <f>E23+4</f>
         <v>44266</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+    </row>
+    <row r="24" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="57"/>
+      <c r="B24" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="66">
+        <f>E23+2</f>
+        <v>44264</v>
+      </c>
+      <c r="F24" s="66">
+        <f>E24+5</f>
+        <v>44269</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="94"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-    </row>
-    <row r="22" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="68">
-        <f ca="1">F21+1</f>
-        <v>44267</v>
-      </c>
-      <c r="F22" s="68">
-        <f ca="1">E22+4</f>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="43"/>
+    </row>
+    <row r="25" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="57"/>
+      <c r="B25" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="66">
+        <f>F24</f>
+        <v>44269</v>
+      </c>
+      <c r="F25" s="66">
+        <f>E25+3</f>
+        <v>44272</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="43"/>
+    </row>
+    <row r="26" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57"/>
+      <c r="B26" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="66">
+        <f>E25</f>
+        <v>44269</v>
+      </c>
+      <c r="F26" s="66">
+        <f>E26+2</f>
         <v>44271</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="94"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-    </row>
-    <row r="23" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="68">
-        <f ca="1">E22+5</f>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43"/>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="43"/>
+    </row>
+    <row r="27" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="66">
+        <f>E26</f>
+        <v>44269</v>
+      </c>
+      <c r="F27" s="66">
+        <f>E27+3</f>
         <v>44272</v>
       </c>
-      <c r="F23" s="68">
-        <f ca="1">E23+5</f>
-        <v>44277</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="94"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-    </row>
-    <row r="24" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="68">
-        <f ca="1">F23+1</f>
-        <v>44278</v>
-      </c>
-      <c r="F24" s="68">
-        <f ca="1">E24+4</f>
-        <v>44282</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="44"/>
-      <c r="AM24" s="44"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
-      <c r="AU24" s="44"/>
-      <c r="AV24" s="94"/>
-      <c r="AW24" s="44"/>
-      <c r="AX24" s="44"/>
-    </row>
-    <row r="25" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="str">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="43"/>
+    </row>
+    <row r="28" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57"/>
+      <c r="B28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="94"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-    </row>
-    <row r="26" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17" t="e">
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="83"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+    </row>
+    <row r="29" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
+      <c r="B29" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="67">
+        <f>E15+15</f>
+        <v>44269</v>
+      </c>
+      <c r="F29" s="67">
+        <f>E29+5</f>
+        <v>44274</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="94"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-    </row>
-    <row r="27" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
+        <v>6</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+    </row>
+    <row r="30" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="57"/>
+      <c r="B30" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="67">
+        <f>F29+1</f>
+        <v>44275</v>
+      </c>
+      <c r="F30" s="67">
+        <f>E30+4</f>
+        <v>44279</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="94"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-    </row>
-    <row r="28" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="83"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+    </row>
+    <row r="31" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="57"/>
+      <c r="B31" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="67">
+        <f>E30+5</f>
+        <v>44280</v>
+      </c>
+      <c r="F31" s="67">
+        <f>E31+5</f>
+        <v>44285</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="44"/>
-    </row>
-    <row r="29" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="83"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+    </row>
+    <row r="32" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="57"/>
+      <c r="B32" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="D32" s="31"/>
+      <c r="E32" s="67">
+        <f>F31+1</f>
+        <v>44286</v>
+      </c>
+      <c r="F32" s="67">
+        <f>E32+4</f>
+        <v>44290</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-    </row>
-    <row r="30" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
-      <c r="AU30" s="44"/>
-      <c r="AV30" s="94"/>
-      <c r="AW30" s="44"/>
-      <c r="AX30" s="44"/>
-    </row>
-    <row r="31" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="83"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+    </row>
+    <row r="33" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17" t="str">
+      <c r="B33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="94"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="44"/>
-    </row>
-    <row r="32" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59" t="s">
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="43"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="43"/>
+      <c r="AU33" s="43"/>
+      <c r="AV33" s="83"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="43"/>
+    </row>
+    <row r="34" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="57"/>
+      <c r="B34" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43"/>
+      <c r="AU34" s="43"/>
+      <c r="AV34" s="83"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="43"/>
+    </row>
+    <row r="35" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="57"/>
+      <c r="B35" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="43"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="83"/>
+      <c r="AW35" s="43"/>
+      <c r="AX35" s="43"/>
+    </row>
+    <row r="36" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="57"/>
+      <c r="B36" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="43"/>
+      <c r="AN36" s="43"/>
+      <c r="AO36" s="43"/>
+      <c r="AP36" s="43"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="43"/>
+      <c r="AS36" s="43"/>
+      <c r="AT36" s="43"/>
+      <c r="AU36" s="43"/>
+      <c r="AV36" s="83"/>
+      <c r="AW36" s="43"/>
+      <c r="AX36" s="43"/>
+    </row>
+    <row r="37" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="57"/>
+      <c r="B37" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="43"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="43"/>
+      <c r="AS37" s="43"/>
+      <c r="AT37" s="43"/>
+      <c r="AU37" s="43"/>
+      <c r="AV37" s="83"/>
+      <c r="AW37" s="43"/>
+      <c r="AX37" s="43"/>
+    </row>
+    <row r="38" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="B38" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43"/>
+      <c r="AT38" s="43"/>
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="83"/>
+      <c r="AW38" s="43"/>
+      <c r="AX38" s="43"/>
+    </row>
+    <row r="39" spans="1:50" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43" t="str">
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="46"/>
-      <c r="AN32" s="46"/>
-      <c r="AO32" s="46"/>
-      <c r="AP32" s="46"/>
-      <c r="AQ32" s="46"/>
-      <c r="AR32" s="46"/>
-      <c r="AS32" s="46"/>
-      <c r="AT32" s="46"/>
-      <c r="AU32" s="46"/>
-      <c r="AV32" s="94"/>
-      <c r="AW32" s="46"/>
-      <c r="AX32" s="46"/>
-    </row>
-    <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="14"/>
-      <c r="F34" s="60"/>
-    </row>
-    <row r="35" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
+      <c r="AP39" s="45"/>
+      <c r="AQ39" s="45"/>
+      <c r="AR39" s="45"/>
+      <c r="AS39" s="45"/>
+      <c r="AT39" s="45"/>
+      <c r="AU39" s="45"/>
+      <c r="AV39" s="83"/>
+      <c r="AW39" s="45"/>
+      <c r="AX39" s="45"/>
+    </row>
+    <row r="40" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="14"/>
+      <c r="F41" s="59"/>
+    </row>
+    <row r="42" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3745,8 +4238,8 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D32">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D7:D21 D39">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3759,30 +4252,72 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AW32">
-    <cfRule type="expression" dxfId="5" priority="33">
+  <conditionalFormatting sqref="I5:AW39">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AW32">
-    <cfRule type="expression" dxfId="4" priority="27">
+  <conditionalFormatting sqref="I7:AW39">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX5:AX32">
-    <cfRule type="expression" dxfId="2" priority="35">
+  <conditionalFormatting sqref="AX5:AX39">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>AND(TODAY()&gt;=AX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX7:AX32">
-    <cfRule type="expression" dxfId="1" priority="38">
+  <conditionalFormatting sqref="AX7:AX39">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="42" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D38">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79040072-DE01-4973-A019-9DA1C4090D18}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ECCE6841-CAC8-4E47-96AA-7DD146201F7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D27">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6AB9AD1E-96FD-4384-BE3A-01FDF63C48A5}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3801,7 +4336,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
+    <ignoredError sqref="F18" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3819,7 +4354,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D32</xm:sqref>
+          <xm:sqref>D7:D21 D39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79040072-DE01-4973-A019-9DA1C4090D18}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ECCE6841-CAC8-4E47-96AA-7DD146201F7B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D28:D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6AB9AD1E-96FD-4384-BE3A-01FDF63C48A5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D22:D27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3835,85 +4415,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="55"/>
-    </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>16</v>
       </c>
     </row>
